--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Lỗi chân connector nguồn</t>
   </si>
   <si>
-    <t>Hàn lại chân connector</t>
-  </si>
-  <si>
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
@@ -411,18 +408,12 @@
     <t>Lock: 203.162.69.75,20675</t>
   </si>
   <si>
-    <t>Khởi tạo lại module GSM</t>
-  </si>
-  <si>
     <t>Lock: 203.162.69.57,21004</t>
   </si>
   <si>
     <t>Chập nguồn</t>
   </si>
   <si>
-    <t>Thay diode quá áp</t>
-  </si>
-  <si>
     <t>Nạp lại FW</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
     <t>Lock: 112.213.94.88,31005</t>
   </si>
   <si>
-    <t>Thay Module GSM/GPS</t>
-  </si>
-  <si>
     <t>LK,NCFW</t>
   </si>
   <si>
@@ -469,6 +457,30 @@
   </si>
   <si>
     <t>SF,NVFW</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Hàn lại chân connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay Module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS chốt chậm</t>
+  </si>
+  <si>
+    <t>Thay antenGPS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>19/12/2020</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1553,9 @@
       <c r="B6" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -1554,18 +1568,24 @@
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>115</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="53" t="s">
         <v>107</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="53"/>
+        <v>113</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>141</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>74</v>
       </c>
@@ -1592,7 +1612,9 @@
       <c r="B7" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -1605,22 +1627,24 @@
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>121</v>
-      </c>
       <c r="K7" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>74</v>
       </c>
@@ -1628,7 +1652,7 @@
         <v>86</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
@@ -1645,7 +1669,9 @@
       <c r="B8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -1658,22 +1684,24 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K8" s="56" t="s">
         <v>107</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P8" s="53" t="s">
         <v>74</v>
       </c>
@@ -1698,7 +1726,9 @@
       <c r="B9" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
@@ -1711,18 +1741,22 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="53"/>
+        <v>114</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>142</v>
+      </c>
       <c r="K9" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P9" s="53" t="s">
         <v>74</v>
       </c>
@@ -1747,7 +1781,9 @@
       <c r="B10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
@@ -1760,22 +1796,24 @@
       </c>
       <c r="H10" s="67"/>
       <c r="I10" s="71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P10" s="53" t="s">
         <v>74</v>
       </c>
@@ -1783,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="R10" s="51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
@@ -1800,7 +1838,9 @@
       <c r="B11" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
@@ -1816,19 +1856,21 @@
         <v>82</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11" s="82" t="s">
         <v>107</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P11" s="53" t="s">
         <v>74</v>
       </c>
@@ -1853,7 +1895,9 @@
       <c r="B12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
@@ -1866,28 +1910,30 @@
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="53" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
+      <c r="O12" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P12" s="53" t="s">
         <v>74</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
@@ -1906,7 +1952,9 @@
       <c r="B13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" s="51" t="s">
         <v>44</v>
       </c>
@@ -1918,10 +1966,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>109</v>
@@ -1930,13 +1978,15 @@
         <v>107</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="N13" s="84"/>
-      <c r="O13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P13" s="53" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1994,7 @@
         <v>86</v>
       </c>
       <c r="R13" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S13" s="85"/>
       <c r="T13" s="63"/>
@@ -1961,7 +2011,9 @@
       <c r="B14" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" s="51" t="s">
         <v>44</v>
       </c>
@@ -1973,23 +2025,25 @@
         <v>70</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I14" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="56"/>
       <c r="M14" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N14" s="85"/>
-      <c r="O14" s="82"/>
+      <c r="O14" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P14" s="85" t="s">
         <v>74</v>
       </c>
@@ -2014,7 +2068,9 @@
       <c r="B15" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2083,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>77</v>
@@ -2036,13 +2092,15 @@
         <v>110</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" s="53" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P15" s="53" t="s">
         <v>74</v>
       </c>
@@ -2050,7 +2108,7 @@
         <v>19</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
@@ -2067,7 +2125,9 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I16" s="73" t="s">
         <v>108</v>
@@ -2091,13 +2151,15 @@
         <v>107</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="53" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="N16" s="55"/>
-      <c r="O16" s="53"/>
+      <c r="O16" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P16" s="53" t="s">
         <v>74</v>
       </c>
@@ -2105,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="R16" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
@@ -2122,7 +2184,9 @@
       <c r="B17" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" s="51" t="s">
         <v>44</v>
       </c>
@@ -2142,13 +2206,15 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N17" s="84"/>
-      <c r="O17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P17" s="53" t="s">
         <v>74</v>
       </c>
@@ -2171,7 +2237,9 @@
       <c r="B18" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" s="51" t="s">
         <v>44</v>
       </c>
@@ -2193,13 +2261,15 @@
         <v>110</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2275,7 +2345,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,7 +2377,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,7 +2590,7 @@
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2718,7 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4982,7 +5052,9 @@
       <c r="B6" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -5003,12 +5075,16 @@
       <c r="K6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="M6" s="53" t="s">
         <v>84</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>74</v>
       </c>
@@ -5037,7 +5113,9 @@
       <c r="B7" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -5052,20 +5130,34 @@
       <c r="I7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="Q7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
       <c r="V7" s="89"/>
@@ -5080,7 +5172,9 @@
       <c r="B8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -5101,12 +5195,16 @@
       <c r="K8" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="M8" s="53" t="s">
         <v>85</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P8" s="53" t="s">
         <v>74</v>
       </c>
@@ -5133,7 +5231,9 @@
       <c r="B9" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -5154,12 +5254,16 @@
       <c r="K9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="M9" s="53" t="s">
         <v>84</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P9" s="53" t="s">
         <v>74</v>
       </c>
@@ -5186,7 +5290,9 @@
       <c r="B10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -5201,20 +5307,34 @@
       <c r="I10" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="53"/>
+      <c r="J10" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="K10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="L10" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P10" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="4"/>
+      <c r="Q10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
       <c r="V10" s="89"/>
@@ -5229,7 +5349,9 @@
       <c r="B11" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>46</v>
       </c>
@@ -5250,12 +5372,16 @@
       <c r="K11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="M11" s="53" t="s">
         <v>84</v>
       </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P11" s="53" t="s">
         <v>74</v>
       </c>
@@ -5282,7 +5408,9 @@
       <c r="B12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>46</v>
       </c>
@@ -5310,7 +5438,9 @@
         <v>84</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
+      <c r="O12" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P12" s="53" t="s">
         <v>74</v>
       </c>
@@ -5320,7 +5450,9 @@
       <c r="R12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
       <c r="V12" s="88" t="s">
@@ -5337,7 +5469,9 @@
       <c r="B13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" s="51" t="s">
         <v>46</v>
       </c>
@@ -5365,7 +5499,9 @@
         <v>84</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5528,9 @@
       <c r="B14" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" s="51" t="s">
         <v>46</v>
       </c>
@@ -5420,7 +5558,9 @@
         <v>84</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="53"/>
+      <c r="O14" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>74</v>
       </c>
@@ -5447,7 +5587,9 @@
       <c r="B15" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>46</v>
       </c>
@@ -5473,7 +5615,9 @@
         <v>92</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>74</v>
       </c>
@@ -5500,7 +5644,9 @@
       <c r="B16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>46</v>
       </c>
@@ -5528,7 +5674,9 @@
         <v>84</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53"/>
+      <c r="O16" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>74</v>
       </c>
@@ -5555,7 +5703,9 @@
       <c r="B17" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" s="51" t="s">
         <v>46</v>
       </c>
@@ -5576,12 +5726,16 @@
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="56" t="s">
+        <v>106</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>74</v>
       </c>
@@ -5606,7 +5760,9 @@
       <c r="B18" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" s="51" t="s">
         <v>46</v>
       </c>
@@ -5631,12 +5787,14 @@
         <v>89</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N18" s="87">
         <v>30000</v>
       </c>
-      <c r="O18" s="53"/>
+      <c r="O18" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>74</v>
       </c>
@@ -5644,7 +5802,7 @@
         <v>86</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>78</v>
@@ -5661,7 +5819,9 @@
       <c r="B19" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D19" s="51" t="s">
         <v>46</v>
       </c>
@@ -5689,7 +5849,9 @@
         <v>84</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>74</v>
       </c>
@@ -5718,7 +5880,9 @@
       <c r="B20" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="D20" s="51" t="s">
         <v>46</v>
       </c>
@@ -5746,7 +5910,9 @@
         <v>98</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5830,7 +5996,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6235,7 +6401,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6299,7 +6465,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -487,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,12 +561,6 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -717,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,9 +860,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,23 +884,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -980,6 +962,30 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,34 +1007,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1334,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="75" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1370,46 +1352,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="68"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1434,7 +1416,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="69"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1451,154 +1433,154 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>868183035904882</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="71" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="88" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1609,55 +1591,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>868183034675640</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="53" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="50" t="s">
         <v>129</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="89"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1666,55 +1648,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>868183035873244</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="53" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="50" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="89"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1723,53 +1705,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>867717030416391</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53" t="s">
+      <c r="L9" s="55"/>
+      <c r="M9" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="50" t="s">
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="89"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1778,55 +1760,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>867857039916759</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="71" t="s">
+      <c r="H10" s="63"/>
+      <c r="I10" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="53" t="s">
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="51" t="s">
+      <c r="R10" s="50" t="s">
         <v>129</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="89"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1835,55 +1817,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>868183035915151</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="50" t="s">
         <v>87</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="89"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1892,53 +1874,53 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>868183035898084</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="56" t="s">
+      <c r="K12" s="78"/>
+      <c r="L12" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53" t="s">
+      <c r="N12" s="54"/>
+      <c r="O12" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="51" t="s">
+      <c r="R12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="88" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1949,57 +1931,57 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>868183035907067</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="53" t="s">
+      <c r="N13" s="80"/>
+      <c r="O13" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="85"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="89"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2008,55 +1990,55 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <v>868183035906499</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="85" t="s">
+      <c r="J14" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="53" t="s">
+      <c r="L14" s="55"/>
+      <c r="M14" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="53" t="s">
+      <c r="N14" s="81"/>
+      <c r="O14" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="85" t="s">
+      <c r="P14" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="83" t="s">
+      <c r="Q14" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="82" t="s">
+      <c r="R14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="89"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2065,55 +2047,55 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>868183033837894</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="63"/>
+      <c r="I15" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="53" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="53" t="s">
+      <c r="P15" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="50" t="s">
         <v>140</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="63"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2122,26 +2104,26 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>868183035935266</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="69" t="s">
         <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -2150,29 +2132,29 @@
       <c r="K16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="53" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R16" s="51" t="s">
+      <c r="R16" s="50" t="s">
         <v>139</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="63"/>
+      <c r="T16" s="60"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2181,24 +2163,24 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>867717030422936</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="70" t="s">
         <v>111</v>
       </c>
       <c r="J17" s="15" t="s">
@@ -2208,50 +2190,50 @@
       <c r="L17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="53" t="s">
+      <c r="N17" s="80"/>
+      <c r="O17" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="51" t="s">
+      <c r="R17" s="50" t="s">
         <v>23</v>
       </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="63"/>
+      <c r="T17" s="60"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="60"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>868183034640404</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="73" t="s">
+      <c r="H18" s="63"/>
+      <c r="I18" s="69" t="s">
         <v>111</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2260,14 +2242,14 @@
       <c r="K18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="55" t="s">
         <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>143</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2280,7 +2262,7 @@
         <v>87</v>
       </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="63"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -2289,14 +2271,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="73"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2307,9 +2289,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="63"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="19" t="s">
@@ -2320,14 +2302,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="73"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2338,7 +2320,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="63"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -2352,14 +2334,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="1"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -2370,7 +2352,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="63"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -2384,14 +2366,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="75"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="1"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2402,7 +2384,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="63"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -2416,14 +2398,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="75"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2434,7 +2416,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="63"/>
+      <c r="T23" s="60"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -2443,14 +2425,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="75"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2461,7 +2443,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="63"/>
+      <c r="T24" s="60"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2470,14 +2452,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="75"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2488,9 +2470,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="63"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="57" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="19" t="s">
@@ -2508,7 +2490,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="75"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2519,7 +2501,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="63"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2540,7 +2522,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="75"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2551,7 +2533,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="63"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -2572,7 +2554,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="73"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2583,7 +2565,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="63"/>
+      <c r="T28" s="60"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2604,7 +2586,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="73"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2615,7 +2597,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="63"/>
+      <c r="T29" s="60"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2636,7 +2618,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2647,7 +2629,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="63"/>
+      <c r="T30" s="60"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2668,7 +2650,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="73"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2679,7 +2661,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="63"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -2700,7 +2682,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="73"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2711,7 +2693,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="63"/>
+      <c r="T32" s="60"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2732,7 +2714,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="73"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2743,7 +2725,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="60"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2764,7 +2746,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="73"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2775,7 +2757,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -2796,7 +2778,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="73"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2807,7 +2789,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="60"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -2828,7 +2810,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="73"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2839,7 +2821,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="60"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2860,7 +2842,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="73"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2871,7 +2853,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="63"/>
+      <c r="T37" s="60"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -2892,7 +2874,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="73"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2903,7 +2885,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="63"/>
+      <c r="T38" s="60"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2919,7 +2901,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="73"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2930,7 +2912,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="63"/>
+      <c r="T39" s="60"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2946,7 +2928,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="73"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2957,7 +2939,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="63"/>
+      <c r="T40" s="60"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2978,7 +2960,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="73"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2989,7 +2971,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="63"/>
+      <c r="T41" s="60"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -3010,7 +2992,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="73"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3021,7 +3003,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="63"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -3037,7 +3019,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="73"/>
+      <c r="I43" s="69"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3048,7 +3030,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="63"/>
+      <c r="T43" s="60"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -3064,7 +3046,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="73"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3077,10 +3059,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="46"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="58" t="s">
+      <c r="V44" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="58" t="s">
+      <c r="W44" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3095,7 +3077,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="73"/>
+      <c r="I45" s="69"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3127,7 +3109,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="73"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3159,7 +3141,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="73"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -3191,7 +3173,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="73"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3223,7 +3205,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="73"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3250,12 +3232,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="62"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="76"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -3264,7 +3246,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="62"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -3287,7 +3269,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="73"/>
+      <c r="I51" s="69"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3319,7 +3301,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="77"/>
+      <c r="I52" s="73"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -3351,7 +3333,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="77"/>
+      <c r="I53" s="73"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -3383,7 +3365,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="78"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -3415,7 +3397,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="77"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -3447,7 +3429,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="77"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -3460,10 +3442,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3479,7 +3461,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="77"/>
+      <c r="I57" s="73"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -3492,8 +3474,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3506,7 +3488,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="77"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -3519,8 +3501,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3533,7 +3515,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="77"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3560,7 +3542,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="77"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3587,7 +3569,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="77"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3619,7 +3601,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="77"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3651,7 +3633,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="77"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3678,7 +3660,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="77"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3705,7 +3687,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="77"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3732,7 +3714,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="77"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3759,7 +3741,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="77"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3789,7 +3771,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="77"/>
+      <c r="I68" s="73"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3816,7 +3798,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="77"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3843,7 +3825,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="77"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3870,7 +3852,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="77"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3897,7 +3879,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="77"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3924,7 +3906,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="77"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3951,7 +3933,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="77"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3978,7 +3960,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="77"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -4005,7 +3987,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="77"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -4032,7 +4014,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="77"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -4059,7 +4041,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="77"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -4086,7 +4068,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="77"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -4113,7 +4095,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="77"/>
+      <c r="I80" s="73"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -4140,7 +4122,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="77"/>
+      <c r="I81" s="73"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -4167,7 +4149,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="77"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -4194,7 +4176,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="77"/>
+      <c r="I83" s="73"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -4221,7 +4203,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="77"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -4248,7 +4230,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="77"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -4275,7 +4257,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="77"/>
+      <c r="I86" s="73"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -4302,7 +4284,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="77"/>
+      <c r="I87" s="73"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -4329,7 +4311,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="77"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -4356,7 +4338,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="77"/>
+      <c r="I89" s="73"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -4383,7 +4365,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="77"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -4410,7 +4392,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="77"/>
+      <c r="I91" s="73"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -4437,7 +4419,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="77"/>
+      <c r="I92" s="73"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -4464,7 +4446,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="77"/>
+      <c r="I93" s="73"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -4491,7 +4473,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="77"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -4518,7 +4500,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="77"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -4545,7 +4527,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="77"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4572,7 +4554,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="77"/>
+      <c r="I97" s="73"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4599,7 +4581,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="77"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4626,7 +4608,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="77"/>
+      <c r="I99" s="73"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4653,7 +4635,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="77"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4680,7 +4662,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="77"/>
+      <c r="I101" s="73"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4707,7 +4689,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="77"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4734,7 +4716,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="77"/>
+      <c r="I103" s="73"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4761,7 +4743,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="77"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4788,7 +4770,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="77"/>
+      <c r="I105" s="73"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4807,6 +4789,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4817,16 +4809,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4837,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C20"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4869,43 +4851,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4950,156 +4932,156 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>868926033967982</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="60" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T6" s="28"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="88" t="s">
+      <c r="U6" s="62"/>
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -5110,57 +5092,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>868926033949857</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="52" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="89"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5169,57 +5151,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>866192037790829</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="52" t="s">
         <v>85</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T8" s="28"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="89"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5228,27 +5210,27 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>868926033938892</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>77</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -5257,28 +5239,28 @@
       <c r="L9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="52" t="s">
         <v>84</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="89"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5287,57 +5269,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>866192037810239</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53" t="s">
+      <c r="H10" s="50"/>
+      <c r="I10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="53" t="s">
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="51" t="s">
+      <c r="R10" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="89"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5346,57 +5328,57 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>869627031793094</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="55" t="s">
         <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="89"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5405,57 +5387,57 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>864811037228322</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>77</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>84</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="52" t="s">
         <v>74</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="51" t="s">
+      <c r="R12" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="88" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5466,30 +5448,30 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>864811036932601</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="52" t="s">
         <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="53" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -5499,7 +5481,7 @@
         <v>84</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -5514,9 +5496,9 @@
       <c r="S13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="89"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5525,30 +5507,30 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <v>864811037120388</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="52" t="s">
         <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -5558,7 +5540,7 @@
         <v>84</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -5573,9 +5555,9 @@
       <c r="S14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="89"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5584,30 +5566,30 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>864811036946213</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="53"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="1" t="s">
         <v>89</v>
       </c>
@@ -5615,7 +5597,7 @@
         <v>92</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53" t="s">
+      <c r="O15" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -5630,9 +5612,9 @@
       <c r="S15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T15" s="66"/>
+      <c r="T15" s="62"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5641,20 +5623,20 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>864811036926397</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="11"/>
@@ -5674,7 +5656,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -5689,9 +5671,9 @@
       <c r="S16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T16" s="66"/>
+      <c r="T16" s="62"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5700,23 +5682,23 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>866192037802160</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="1" t="s">
         <v>76</v>
       </c>
@@ -5726,14 +5708,14 @@
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="55" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -5748,32 +5730,32 @@
       <c r="S17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T17" s="66"/>
+      <c r="T17" s="62"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="66"/>
+      <c r="V17" s="62"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>864811036986805</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="15" t="s">
         <v>101</v>
       </c>
@@ -5789,10 +5771,10 @@
       <c r="M18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="83">
         <v>30000</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -5807,7 +5789,7 @@
       <c r="S18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T18" s="66"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5816,20 +5798,20 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="51">
         <v>868926033920809</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="1"/>
@@ -5849,7 +5831,7 @@
         <v>84</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="53" t="s">
+      <c r="O19" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -5864,9 +5846,9 @@
       <c r="S19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T19" s="66"/>
+      <c r="T19" s="62"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="19" t="s">
@@ -5877,20 +5859,20 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <v>868345031037518</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="1"/>
@@ -5910,7 +5892,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="53" t="s">
+      <c r="O20" s="52" t="s">
         <v>147</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -5925,7 +5907,7 @@
       <c r="S20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T20" s="66"/>
+      <c r="T20" s="62"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -5957,7 +5939,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="66"/>
+      <c r="T21" s="62"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -5989,7 +5971,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="66"/>
+      <c r="T22" s="62"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -6021,7 +6003,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="66"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -6048,7 +6030,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="66"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -6075,9 +6057,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="66"/>
+      <c r="T25" s="62"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="57" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="19" t="s">
@@ -6106,7 +6088,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="66"/>
+      <c r="T26" s="62"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -6138,7 +6120,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="66"/>
+      <c r="T27" s="62"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -6170,7 +6152,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="66"/>
+      <c r="T28" s="62"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -6202,7 +6184,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="66"/>
+      <c r="T29" s="62"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -6234,7 +6216,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="66"/>
+      <c r="T30" s="62"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -6266,7 +6248,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="66"/>
+      <c r="T31" s="62"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -6298,7 +6280,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="66"/>
+      <c r="T32" s="62"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -6330,7 +6312,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="66"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -6362,7 +6344,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="66"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -6394,7 +6376,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="66"/>
+      <c r="T35" s="62"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -6426,7 +6408,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="66"/>
+      <c r="T36" s="62"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -6458,7 +6440,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="66"/>
+      <c r="T37" s="62"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -6490,7 +6472,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="66"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -6517,7 +6499,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="66"/>
+      <c r="T39" s="62"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -6544,7 +6526,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="66"/>
+      <c r="T40" s="62"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -6576,7 +6558,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="66"/>
+      <c r="T41" s="62"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -6608,7 +6590,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="66"/>
+      <c r="T42" s="62"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -6635,7 +6617,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="66"/>
+      <c r="T43" s="62"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -6664,10 +6646,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="46"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="58" t="s">
+      <c r="V44" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="58" t="s">
+      <c r="W44" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6837,10 +6819,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -6851,7 +6833,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="65"/>
+      <c r="R50" s="61"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -7047,10 +7029,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7079,8 +7061,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7106,8 +7088,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8394,6 +8376,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8404,16 +8396,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8424,8 +8406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8456,43 +8438,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8537,58 +8519,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8613,50 +8595,78 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="B6" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868183035904882</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8667,27 +8677,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="B7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>868183034675640</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>129</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="89"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8696,27 +8734,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868183035873244</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="89"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8725,27 +8791,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="B9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="51">
+        <v>867717030416391</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8754,27 +8846,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="B10" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="51">
+        <v>867857039916759</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>129</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8783,27 +8903,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868183035915151</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8812,27 +8960,53 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868183035898084</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="88" t="s">
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8843,27 +9017,57 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868183035907067</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="80"/>
+      <c r="O13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>139</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="89"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8872,27 +9076,55 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
+      <c r="B14" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868183035906499</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="81"/>
+      <c r="O14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="89"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8901,27 +9133,55 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="B15" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="51">
+        <v>868183033837894</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>140</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8930,27 +9190,57 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="56"/>
+      <c r="B16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868183035935266</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>139</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8959,23 +9249,49 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="56"/>
+      <c r="B17" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="51">
+        <v>867717030422936</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="80"/>
+      <c r="O17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="30"/>
       <c r="U17" s="16"/>
@@ -8986,23 +9302,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="56"/>
+      <c r="B18" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="51">
+        <v>868183034640404</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="30"/>
       <c r="U18" s="16"/>
@@ -9013,24 +9357,54 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="4"/>
+      <c r="B19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>868926033967982</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T19" s="30"/>
       <c r="U19" s="16"/>
       <c r="V19" s="5" t="s">
@@ -9044,24 +9418,54 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
+      <c r="B20" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="51">
+        <v>868926033949857</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T20" s="30"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
@@ -9069,31 +9473,61 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="51">
+        <v>866192037790829</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T21" s="30"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
@@ -9101,31 +9535,61 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
+      <c r="B22" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="51">
+        <v>868926033938892</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T22" s="30"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
@@ -9133,31 +9597,61 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="51">
+        <v>866192037810239</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T23" s="30"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -9167,24 +9661,54 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
+      <c r="B24" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="51">
+        <v>869627031793094</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="54"/>
+      <c r="O24" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T24" s="30"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -9194,24 +9718,54 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="4"/>
+      <c r="B25" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="51">
+        <v>864811037228322</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T25" s="30"/>
       <c r="U25" s="16"/>
       <c r="V25" s="5" t="s">
@@ -9225,24 +9779,54 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="4"/>
+      <c r="B26" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="51">
+        <v>864811036932601</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T26" s="30"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
@@ -9257,24 +9841,54 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="4"/>
+      <c r="B27" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="51">
+        <v>864811037120388</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T27" s="30"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
@@ -9282,31 +9896,59 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+      <c r="B28" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="51">
+        <v>864811036946213</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="52"/>
+      <c r="L28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T28" s="30"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
@@ -9314,31 +9956,61 @@
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="51">
+        <v>864811036926397</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="O29" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T29" s="30"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
@@ -9353,24 +10025,54 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="B30" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="51">
+        <v>866192037802160</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
+      <c r="O30" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T30" s="30"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
@@ -9378,31 +10080,63 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
+      <c r="B31" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="51">
+        <v>864811036986805</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="83">
+        <v>30000</v>
+      </c>
+      <c r="O31" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T31" s="30"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
@@ -9410,31 +10144,61 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="51">
+        <v>868926033920809</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
+      <c r="O32" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T32" s="30"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
@@ -9442,31 +10206,61 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="51">
+        <v>868345031037518</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
+      <c r="O33" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T33" s="30"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
@@ -9474,7 +10268,7 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9538,7 +10332,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9570,7 +10364,7 @@
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9602,7 +10396,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9869,7 +10663,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9933,7 +10727,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,10 +10978,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10216,8 +11010,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10243,8 +11037,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11531,6 +12325,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11541,16 +12345,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
